--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp7-Acvr2a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp7-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H2">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N2">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O2">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P2">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q2">
-        <v>1.910094123952227</v>
+        <v>1.3897242271615</v>
       </c>
       <c r="R2">
-        <v>1.910094123952227</v>
+        <v>8.338345362968999</v>
       </c>
       <c r="S2">
-        <v>0.1476353775197148</v>
+        <v>0.05587113348981107</v>
       </c>
       <c r="T2">
-        <v>0.1476353775197148</v>
+        <v>0.0529499803774564</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H3">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N3">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P3">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q3">
-        <v>4.427117566168358</v>
+        <v>3.425120640407889</v>
       </c>
       <c r="R3">
-        <v>4.427117566168358</v>
+        <v>30.826085763671</v>
       </c>
       <c r="S3">
-        <v>0.3421816574426433</v>
+        <v>0.137700249286003</v>
       </c>
       <c r="T3">
-        <v>0.3421816574426433</v>
+        <v>0.1957511430923728</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H4">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N4">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O4">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P4">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q4">
-        <v>1.013643159078677</v>
+        <v>0.7713709742933332</v>
       </c>
       <c r="R4">
-        <v>1.013643159078677</v>
+        <v>6.94233876864</v>
       </c>
       <c r="S4">
-        <v>0.07834671003081929</v>
+        <v>0.03101145524600551</v>
       </c>
       <c r="T4">
-        <v>0.07834671003081929</v>
+        <v>0.04408508949577188</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H5">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N5">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O5">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P5">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q5">
-        <v>1.074543917088413</v>
+        <v>0.7900780338687777</v>
       </c>
       <c r="R5">
-        <v>1.074543917088413</v>
+        <v>7.110702304819</v>
       </c>
       <c r="S5">
-        <v>0.08305386361412043</v>
+        <v>0.03176353584035212</v>
       </c>
       <c r="T5">
-        <v>0.08305386361412043</v>
+        <v>0.04515422798175358</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H6">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N6">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O6">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P6">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q6">
-        <v>1.785694492349337</v>
+        <v>1.374398539232555</v>
       </c>
       <c r="R6">
-        <v>1.785694492349337</v>
+        <v>12.369586853093</v>
       </c>
       <c r="S6">
-        <v>0.1380202562831734</v>
+        <v>0.05525499430236224</v>
       </c>
       <c r="T6">
-        <v>0.1380202562831734</v>
+        <v>0.0785490828980613</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1301303333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.390391</v>
+      </c>
+      <c r="I7">
+        <v>0.4028730131292778</v>
+      </c>
+      <c r="J7">
+        <v>0.5029891437391611</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>17.446105</v>
+      </c>
+      <c r="N7">
+        <v>34.89221</v>
+      </c>
+      <c r="O7">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P7">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q7">
+        <v>2.270267459018333</v>
+      </c>
+      <c r="R7">
+        <v>13.62160475411</v>
+      </c>
+      <c r="S7">
+        <v>0.09127164496474388</v>
+      </c>
+      <c r="T7">
+        <v>0.0864996198937452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.1928755</v>
+      </c>
+      <c r="H8">
+        <v>0.385751</v>
+      </c>
+      <c r="I8">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J8">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10.6794795</v>
+      </c>
+      <c r="N8">
+        <v>21.358959</v>
+      </c>
+      <c r="O8">
+        <v>0.1386817475209803</v>
+      </c>
+      <c r="P8">
+        <v>0.1052706227093344</v>
+      </c>
+      <c r="Q8">
+        <v>2.05980994830225</v>
+      </c>
+      <c r="R8">
+        <v>8.239239793209</v>
+      </c>
+      <c r="S8">
+        <v>0.08281061403116918</v>
+      </c>
+      <c r="T8">
+        <v>0.052320642331878</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.1928755</v>
+      </c>
+      <c r="H9">
+        <v>0.385751</v>
+      </c>
+      <c r="I9">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J9">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>26.32069366666667</v>
+      </c>
+      <c r="N9">
+        <v>78.962081</v>
+      </c>
+      <c r="O9">
+        <v>0.3417956646349414</v>
+      </c>
+      <c r="P9">
+        <v>0.3891756820777128</v>
+      </c>
+      <c r="Q9">
+        <v>5.076616951305167</v>
+      </c>
+      <c r="R9">
+        <v>30.459701707831</v>
+      </c>
+      <c r="S9">
+        <v>0.2040954153489384</v>
+      </c>
+      <c r="T9">
+        <v>0.1934245389853401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.1928755</v>
+      </c>
+      <c r="H10">
+        <v>0.385751</v>
+      </c>
+      <c r="I10">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J10">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.92768</v>
+      </c>
+      <c r="N10">
+        <v>17.78304</v>
+      </c>
+      <c r="O10">
+        <v>0.07697575721224656</v>
+      </c>
+      <c r="P10">
+        <v>0.08764620478296728</v>
+      </c>
+      <c r="Q10">
+        <v>1.14330424384</v>
+      </c>
+      <c r="R10">
+        <v>6.85982546304</v>
+      </c>
+      <c r="S10">
+        <v>0.04596430196624105</v>
+      </c>
+      <c r="T10">
+        <v>0.0435611152871954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.1928755</v>
+      </c>
+      <c r="H11">
+        <v>0.385751</v>
+      </c>
+      <c r="I11">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J11">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.071436333333334</v>
+      </c>
+      <c r="N11">
+        <v>18.214309</v>
+      </c>
+      <c r="O11">
+        <v>0.07884255039480526</v>
+      </c>
+      <c r="P11">
+        <v>0.08977177448817772</v>
+      </c>
+      <c r="Q11">
+        <v>1.171031318509833</v>
+      </c>
+      <c r="R11">
+        <v>7.026187911059</v>
+      </c>
+      <c r="S11">
+        <v>0.04707901455445313</v>
+      </c>
+      <c r="T11">
+        <v>0.04461754650642414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.179444749129084</v>
-      </c>
-      <c r="H7">
-        <v>0.179444749129084</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>15.1958908183617</v>
-      </c>
-      <c r="N7">
-        <v>15.1958908183617</v>
-      </c>
-      <c r="O7">
-        <v>0.2107621351095285</v>
-      </c>
-      <c r="P7">
-        <v>0.2107621351095285</v>
-      </c>
-      <c r="Q7">
-        <v>2.726822815693867</v>
-      </c>
-      <c r="R7">
-        <v>2.726822815693867</v>
-      </c>
-      <c r="S7">
-        <v>0.2107621351095285</v>
-      </c>
-      <c r="T7">
-        <v>0.2107621351095285</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.1928755</v>
+      </c>
+      <c r="H12">
+        <v>0.385751</v>
+      </c>
+      <c r="I12">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J12">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10.56170766666667</v>
+      </c>
+      <c r="N12">
+        <v>31.685123</v>
+      </c>
+      <c r="O12">
+        <v>0.1371523842542203</v>
+      </c>
+      <c r="P12">
+        <v>0.1561645691080663</v>
+      </c>
+      <c r="Q12">
+        <v>2.037094647062166</v>
+      </c>
+      <c r="R12">
+        <v>12.222567882373</v>
+      </c>
+      <c r="S12">
+        <v>0.08189738995185804</v>
+      </c>
+      <c r="T12">
+        <v>0.07761548621000496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1928755</v>
+      </c>
+      <c r="H13">
+        <v>0.385751</v>
+      </c>
+      <c r="I13">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J13">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.446105</v>
+      </c>
+      <c r="N13">
+        <v>34.89221</v>
+      </c>
+      <c r="O13">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P13">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q13">
+        <v>3.3649262249275</v>
+      </c>
+      <c r="R13">
+        <v>13.45970489971</v>
+      </c>
+      <c r="S13">
+        <v>0.1352802510180623</v>
+      </c>
+      <c r="T13">
+        <v>0.08547152693999632</v>
       </c>
     </row>
   </sheetData>
